--- a/Program/Other/Sharepoint上傳用/測試FT/L8/L8308/FT_L8308.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L8/L8308/FT_L8308.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\測試FT\L8\L8307\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\測試FT\L8\L8308\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D788F1E8-4689-47E9-B832-087075DB67A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206DBE15-3FD4-4E9D-8510-194060A5A91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FT_L8307" sheetId="1" r:id="rId1"/>
+    <sheet name="FT_L8308" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="153">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -150,195 +150,514 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>L8307</t>
+    <t>客戶姓名</t>
+  </si>
+  <si>
+    <t>L8308(47)金融機構無擔保債務協議資料_刪除</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FT\L8\L8307(46)結案通知資料</t>
+    <t>L8308</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>L8307(46)結案通知資料_新增</t>
+    <t>FT\L8\L8308(47)金融機構無擔保債務協議資料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.自動顯示
-2.JcicZ046.TranKey
-</t>
+    <t>L8308(47)金融機構無擔保債務協議資料_新增</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自動顯示</t>
+  </si>
+  <si>
+    <t>期數</t>
+  </si>
+  <si>
+    <t>利率</t>
+  </si>
+  <si>
+    <t>依民法第323條計算之信用貸款債務總金額</t>
+  </si>
+  <si>
+    <t>信用貸款債務簽約總金額</t>
+  </si>
+  <si>
+    <t>依民法第323條計算之現金卡債務總金額</t>
+  </si>
+  <si>
+    <t>現金卡債務簽約總金額</t>
+  </si>
+  <si>
+    <t>依民法第323條計算之信用卡債務總金額</t>
+  </si>
+  <si>
+    <t>信用卡債務簽約總金額</t>
+  </si>
+  <si>
+    <t>依民法第323條計算之債務總金額</t>
+  </si>
+  <si>
+    <t>1.自動顯示合計值([依民法第323條計算之信用貸款債務總金額(Civil323ExpAmt)] + [依民法第323條計算之現金卡債務總金額(Civil323CashAmt)] + [依民法第323條計算之信用卡債務總金額(Civil323CreditAmt)])2.JcicZ047.Civil323Amt</t>
+  </si>
+  <si>
+    <t>簽約總債務金額</t>
+  </si>
+  <si>
+    <t>1.自動顯示合計值([信用貸款債務簽約總金額(ExpLoanAmt)] + [現金卡債務簽約總金額(CashCardAmt)] + [信用卡債務簽約總金額(CreditCardAmt)])2.JcicZ047.TotalAmt</t>
+  </si>
+  <si>
+    <t>協議完成日</t>
+  </si>
+  <si>
+    <t>面談日期</t>
+  </si>
+  <si>
+    <t>簽約完成日期</t>
+  </si>
+  <si>
+    <t>前置協商註記訊息揭露期限</t>
+  </si>
+  <si>
+    <t>首期應繳款日</t>
+  </si>
+  <si>
+    <t>月付金</t>
+  </si>
+  <si>
+    <t>繳款帳號</t>
+  </si>
+  <si>
+    <t>最大債權金融機構聲請狀送達地址</t>
+  </si>
+  <si>
+    <t>屬二階段還款方案之階段註記</t>
+  </si>
+  <si>
+    <t>屬二階段還款方案之階段註記中文</t>
+  </si>
+  <si>
+    <t>第一階段最後一期應繳金額</t>
+  </si>
+  <si>
+    <t>第二段期數</t>
+  </si>
+  <si>
+    <t>第二階段利率</t>
+  </si>
+  <si>
+    <t>第二階段協商方案估計月付金</t>
+  </si>
+  <si>
+    <t>第二階段最後一期應繳金額</t>
+  </si>
+  <si>
+    <t>轉出JCIC文字檔日期</t>
+  </si>
+  <si>
+    <t>1.自動顯示
+2.JcicZ047.TranKey</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.自動顯示
-2.JcicZ046.CustId
+2.JcicZ047.CustId
 3.檢核該[債務人IDN]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicCustName]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[債務人姓名中文]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客戶姓名</t>
-  </si>
-  <si>
-    <t>1.限輸入代碼，檢核條件:
-⑴.不可空白/V(7)
-⑵.限輸入英數字/V(NL)
-2.JcicZ046.SubmitKey
+    <t>1.限輸入代碼，檢核條件:⑴.不可空白/V(7)⑵.限輸入英數字/V(NL)
+2.JcicZ047.SubmitKey
 3.檢核該[報送單位代號]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicBankCode]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[報送單位中文]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>結案原因代號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.限輸入日期，檢核條件:
-⑴.不可空白/V(7)
-⑵.日期格式/A(DATE,0)
-2.JcicZ046.RcDate
-</t>
+    <t>1.限輸入日期，檢核條件:⑴.不可空白/V(7)⑵.日期格式/A(DATE,0)
+2.JcicZ047.RcDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.限輸入代碼，檢核條件:
-⑴.不可空白/V(7)
-⑵.依選單/V(H)
-2.JcicZ046.CloseCode
-</t>
+    <t>1.限輸入數字
+2.若[屬二階段還款方案之階段註記]填報值為"1"，本欄無需輸入，自動顯示固定值"072"
+3.JcicZ047.Period</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>結案原因代號中文</t>
+    <t>1.限輸入數字
+2.若[屬二階段還款方案之階段註記]填報值為"1"或"2"，本欄無需輸入，自動顯示固定值"00.00"
+3.JcicZ047.Rate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>結案日期</t>
+    <t>1.限輸入數字
+2.JcicZ047.Civil323ExpAmt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.限輸入日期，檢核條件:
-⑴.不可空白/V(7)
-⑵.日期格式/A(DATE,0)
-⑶.需大於等於[協商申請日]
-⑷.需小於等於本檔案填報日期
-2.JcicZ046.CloseDate
-3.檢核[結案日期]是否小於[協商申請日]，若是則顯示錯誤訊息"結案日早於協商申請日"</t>
+    <t>1.限輸入數字
+2.JcicZ047.ExpLoanAmt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>毀諾原因代號</t>
+    <t>1.限輸入數字
+2.JcicZ047.Civil323CashAmt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.限輸入代碼，若[結案原因]等於[00.毀諾]，則此欄位必須輸入，檢核條件:
-⑴.不可空白/V(7)
-⑵.依選單/V(H)
-2.JcicZ046.BreakCode
-</t>
+    <t>1.限輸入數字
+2.JcicZ047.CashCardAmt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>毀諾原因代號中文</t>
+    <t>1.限輸入數字
+2.JcicZ047.Civil323CreditAmt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>轉出JCIC文字檔日期</t>
+    <t>1.限輸入數字
+2.JcicZ047.CreditCardAmt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.自動顯示
-2.JcicZ046.OutJcicDate
-</t>
+    <t>1.限輸入日期，檢核條件:⑴.不可空白/V(7)⑵.日期格式/A(DATE,0)
+2.JcicZ047.PassDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>L8307(46)結案通知資料_異動</t>
+    <t>1.限輸入日期，若不為空白，檢核條件:日期格式/A(DATE,0)
+2.JcicZ047.InterviewDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.自動顯示原值，可修改代碼，檢核條件:
-⑴.不可空白/V(7)
-⑵.依選單/V(H)
-2.JcicZ046.TranKey
-</t>
+    <t>1.限輸入日期，若不為空白，檢核條件:⑴.日期格式/A(DATE,0)⑵.需大於等於[協議完成日]
+2.JcicZ047.SignDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>1.限輸入日期，檢核條件:⑴.不可空白/V(7)⑵.日期格式/A(DATE,0)
+2.JcicZ047.LimitDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入日期，檢核條件:⑴.不可空白/V(7)⑵.日期格式/A(DATE,0)⑶.需大於等於[簽約完成日期]
+2.JcicZ047.FirstPayDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入數字
+2.JcicZ047.MonthPayAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入文數字，檢核條件:⑴.不可空白/V(7)⑵.文數字格式/V(NL)
+2.JcicZ047.PayAccount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入文數字，檢核條件:⑴.不可空白/V(7)⑵.文數字格式/V(NL)
+2.JcicZ047.PostAddr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入代碼，若不為空白，檢核條件:依選單/V(H)
+2.JcicZ047.GradeType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示
+2.若[屬二階段還款方案之階段註記]等於1，計算:([簽約總債務金額]-[月付金]*71期)，並填入[第一階段最後一期應繳金額]
+3.若[屬二階段還款方案之階段註記]等於2或空白，[第一階段最後一期應繳金額]需為空白，不可輸入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示
+2.JcicZ047.PayLastAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入數字
+2.若[屬二階段還款方案之階段註記]填報為"1"或空白，本欄需為空白，不可輸入3.JcicZ047.Period2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入數字
+2.若[屬二階段還款方案之階段註記]填報為"1"或空白，本欄需為空白，不可輸入
+3.JcicZ047.Rate2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入數字
+2.若[屬二階段還款方案之階段註記]填報為"1"或空白，本欄需為空白，不可輸入
+3.JcicZ047.MonthPayAmt2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入數字
+2.若[屬二階段還款方案之階段註記]填報為"1"或空白，本欄需為空白，不可輸入
+3.JcicZ047.PayLastAmt2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示
+2.JcicZ047.OutJcicDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8308(47)金融機構無擔保債務協議資料_異動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示合計值([依民法第323條計算之信用貸款債務總金額(Civil323ExpAmt)]+[依民法第323條計算之現金卡債務總金額(Civil323CashAmt)]+[依民法第323條計算之信用卡債務總金額(Civil323CreditAmt)])2.JcicZ047.Civil323Amt</t>
+  </si>
+  <si>
+    <t>1.自動顯示合計值([信用貸款債務簽約總金額(ExpLoanAmt)]+[現金卡債務簽約總金額(CashCardAmt)]+[信用卡債務簽約總金額(CreditCardAmt)])2.JcicZ047.TotalAmt</t>
+  </si>
+  <si>
+    <t>1.自動顯示原值，可修改代碼，檢核條件:⑴.不可空白/V(7)⑵.依選單/V(H)
+2.JcicZ047.TranKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.自動顯示原值
-2.JcicZ046.SubmitKey
+2.JcicZ047.CustId
+3.檢核該[債務人IDN]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicCustName]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[債務人姓名中文]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值
+2.JcicZ047.SubmitKey
 3.檢核該[報送單位代號]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicBankCode]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[報送單位中文]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.自動顯示原值
-2.JcicZ046.RcDate
-</t>
+    <t>1.自動顯示原值
+2.JcicZ047.RcDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
-2.限輸入代碼，檢核條件:
-⑴.不可空白/V(7)
-⑵.依選單/V(H)
-3.JcicZ046.CloseCode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.自動顯示原值
-2.JcicZ046.CloseDate
-</t>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.若[屬二階段還款方案之階段註記]等於"1"，本欄無需輸入，自動顯示固定值"072"4.JcicZ047.Period</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
-2.限輸入代碼，若[結案原因]等於[00.毀諾]，則此欄位必須輸入，檢核條件:
-依選單/V(H)
-3.JcicZ046.BreakCode
-</t>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.若[屬二階段還款方案之階段註記]等於"1"，本欄無需輸入，自動顯示固定值"00.00"4.JcicZ047.Rate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>L8307(46)結案通知資料_查詢</t>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ047.Civil323ExpAmt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">JcicZ046.TranKey
-</t>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ047.ExpLoanAmt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.JcicZ046.CustId
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ047.Civil323CashAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ047.CashCardAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ047.Civil323CreditAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ047.CreditCardAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入日期，檢核條件:⑴.不可空白/V(7)⑵.日期格式/A(DATE,0)
+3.JcicZ047.PassDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入日期，若不為空白，檢核條件:日期格式/A(DATE,0)
+3.JcicZ047.InterviewDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入日期，若不為空白，檢核條件:⑴.日期格式/A(DATE,0)⑵.需大於等於[協議完成日]
+3.JcicZ047.SignDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入日期，檢核條件:⑴.不可空白/V(7)⑵.日期格式/A(DATE,0)
+3.JcicZ047.LimitDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入日期，檢核條件:⑴.不可空白/V(7)⑵.日期格式/A(DATE,0)⑶.需大於等於[簽約完成日期]
+3.JcicZ047.FirstPayDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.JcicZ047.MonthPayAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入文數字，檢核條件:⑴.不可空白/V(7)⑵.文數字格式/V(NL)
+3.JcicZ047.PayAccount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入文數字，檢核條件:⑴.不可空白/V(7)⑵.文數字格式/V(NL)
+3.JcicZ047.PostAddr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入代碼，若不為空白，檢核條件:依選單/V(H)
+3.JcicZ047.GradeType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.若[屬二階段還款方案之階段註記]填報為"1"或空白，本欄需為空白，不可輸入4.JcicZ047.Period2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.若[屬二階段還款方案之階段註記]填報為"1"或空白，本欄需為空白，不可輸入4.JcicZ047.Rate2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.若[屬二階段還款方案之階段註記]填報為"1"或空白，本欄需為空白，不可輸入4.JcicZ047.MonthPayAmt2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原值，若[交易代碼]等於[D.刪除]，則此欄位不需輸入
+2.限輸入數字
+3.若[屬二階段還款方案之階段註記]填報為"1"或空白，本欄需為空白，不可輸入4.JcicZ047.PayLastAmt2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8308(47)金融機構無擔保債務協議資料_查詢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicZ047.TranKey</t>
+  </si>
+  <si>
+    <t>JcicZ047.RcDate</t>
+  </si>
+  <si>
+    <t>JcicZ047.Period</t>
+  </si>
+  <si>
+    <t>JcicZ047.Rate</t>
+  </si>
+  <si>
+    <t>JcicZ047.Civil323ExpAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.ExpLoanAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.Civil323CashAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.CashCardAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.Civil323CreditAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.CreditCardAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.Civil323Amt</t>
+  </si>
+  <si>
+    <t>JcicZ047.TotalAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.PassDate</t>
+  </si>
+  <si>
+    <t>JcicZ047.InterviewDate</t>
+  </si>
+  <si>
+    <t>JcicZ047.SignDate</t>
+  </si>
+  <si>
+    <t>JcicZ047.LimitDate</t>
+  </si>
+  <si>
+    <t>JcicZ047.FirstPayDate</t>
+  </si>
+  <si>
+    <t>JcicZ047.MonthPayAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.PayAccount</t>
+  </si>
+  <si>
+    <t>JcicZ047.PostAddr</t>
+  </si>
+  <si>
+    <t>JcicZ047.GradeType自動顯示</t>
+  </si>
+  <si>
+    <t>JcicZ047.PayLastAmt</t>
+  </si>
+  <si>
+    <t>JcicZ047.Period2</t>
+  </si>
+  <si>
+    <t>JcicZ047.Rate2</t>
+  </si>
+  <si>
+    <t>JcicZ047.MonthPayAmt2</t>
+  </si>
+  <si>
+    <t>JcicZ047.PayLastAmt2</t>
+  </si>
+  <si>
+    <t>JcicZ047.OutJcicDate</t>
+  </si>
+  <si>
+    <t>1.JcicZ047.CustId
 2.檢核該[債務人IDN]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicCustName]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[債務人姓名中文]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.JcicZ046.SubmitKey
-32.檢核該[報送單位代號]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicBankCode]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[報送單位中文]</t>
+    <t>1.JcicZ047.SubmitKey
+2.檢核該[報送單位代號]是否存在於[共用代碼檔(CdCode)]、[代碼檔代號]等於[JcicBankCode]中，若不存在則顯示錯誤訊息"E0001:查詢資料不存在(查無此代號)"，否則自動帶入[代碼說明(CdCode.Item)]至[報送單位中文]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">.JcicZ046.CloseCode
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">JcicZ046.CloseDate
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">JcicZ046.BreakCode
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">JcicZ046.OutJcicDate
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L8307(46)結案通知資料_刪除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>L8308</t>
   </si>
 </sst>
 </file>
@@ -551,8 +870,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -838,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -851,7 +1170,7 @@
     <col min="3" max="3" width="16.36328125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="115.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.36328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="57.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17.7265625" style="7" bestFit="1" customWidth="1"/>
@@ -920,22 +1239,22 @@
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -967,22 +1286,22 @@
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>36</v>
+      <c r="F3" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>27</v>
@@ -1014,22 +1333,22 @@
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
@@ -1061,69 +1380,69 @@
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="97.2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>31</v>
@@ -1155,22 +1474,22 @@
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>36</v>
+      <c r="F7" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>27</v>
@@ -1202,22 +1521,22 @@
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>31</v>
@@ -1249,22 +1568,22 @@
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>40</v>
+        <v>152</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>31</v>
@@ -1296,69 +1615,69 @@
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="113.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>31</v>
@@ -1390,22 +1709,22 @@
     </row>
     <row r="12" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>31</v>
@@ -1437,118 +1756,120 @@
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="13" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="17">
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="9">
         <v>44610</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>24</v>
+        <v>152</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1576,25 +1897,25 @@
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>28</v>
+        <v>152</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>12</v>
@@ -1623,22 +1944,22 @@
     </row>
     <row r="17" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>37</v>
+        <v>152</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>27</v>
@@ -1670,22 +1991,22 @@
     </row>
     <row r="18" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>36</v>
+        <v>152</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>27</v>
@@ -1717,25 +2038,25 @@
     </row>
     <row r="19" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>29</v>
+        <v>152</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>12</v>
@@ -1764,25 +2085,25 @@
     </row>
     <row r="20" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>30</v>
-      </c>
       <c r="F20" s="19" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
@@ -1811,25 +2132,25 @@
     </row>
     <row r="21" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>26</v>
+        <v>152</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>12</v>
@@ -1856,24 +2177,24 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" ht="97.2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>40</v>
+        <v>152</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>31</v>
@@ -1905,25 +2226,25 @@
     </row>
     <row r="23" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>12</v>
@@ -1952,69 +2273,69 @@
     </row>
     <row r="24" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" ht="97.2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>31</v>
@@ -2046,116 +2367,116 @@
     </row>
     <row r="26" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="13" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="17">
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="9">
         <v>44610</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>24</v>
+        <v>152</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>27</v>
@@ -2187,25 +2508,25 @@
     </row>
     <row r="29" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>28</v>
+        <v>152</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>12</v>
@@ -2234,25 +2555,25 @@
     </row>
     <row r="30" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>25</v>
+        <v>152</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>12</v>
@@ -2281,72 +2602,72 @@
     </row>
     <row r="31" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>38</v>
+        <v>152</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="F31" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>29</v>
+        <v>152</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>12</v>
@@ -2366,6 +2687,8 @@
       <c r="M32" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
         <v>20</v>
       </c>
@@ -2373,122 +2696,124 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>30</v>
+        <v>152</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="F33" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="23" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>54</v>
+      <c r="C34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="9">
+      <c r="H34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="17">
         <v>44610</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>40</v>
+        <v>152</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="3" t="s">
         <v>12</v>
       </c>
@@ -2516,22 +2841,22 @@
     </row>
     <row r="36" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>27</v>
@@ -2563,22 +2888,22 @@
     </row>
     <row r="37" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>27</v>
@@ -2610,22 +2935,22 @@
     </row>
     <row r="38" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>64</v>
+      <c r="F38" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>27</v>
@@ -2657,22 +2982,22 @@
     </row>
     <row r="39" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>27</v>
@@ -2702,71 +3027,71 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="13" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="17">
+    <row r="40" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="9">
         <v>44610</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>24</v>
+        <v>152</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>27</v>
@@ -2798,25 +3123,25 @@
     </row>
     <row r="42" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>28</v>
+        <v>152</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
@@ -2845,25 +3170,25 @@
     </row>
     <row r="43" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>25</v>
+        <v>152</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
@@ -2892,25 +3217,25 @@
     </row>
     <row r="44" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>38</v>
+        <v>152</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
@@ -2939,25 +3264,25 @@
     </row>
     <row r="45" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>29</v>
+        <v>152</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
@@ -2986,25 +3311,25 @@
     </row>
     <row r="46" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>30</v>
+        <v>152</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -3033,25 +3358,25 @@
     </row>
     <row r="47" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>26</v>
+        <v>152</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>12</v>
@@ -3080,25 +3405,25 @@
     </row>
     <row r="48" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>40</v>
+        <v>152</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -3127,25 +3452,25 @@
     </row>
     <row r="49" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
@@ -3174,22 +3499,22 @@
     </row>
     <row r="50" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>27</v>
@@ -3221,22 +3546,22 @@
     </row>
     <row r="51" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>27</v>
@@ -3268,95 +3593,3801 @@
     </row>
     <row r="52" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="23" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="17">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q84" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q88" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q90" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q91" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q92" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q93" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q94" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q95" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q96" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q97" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="23" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q99" s="17">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="C100" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q100" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q101" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q102" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="18" t="s">
+      <c r="F103" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q103" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q104" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q105" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q106" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q107" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q108" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q109" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q110" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q111" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q112" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q113" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q114" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q115" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E116" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="13" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="F116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q116" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="21" t="s">
+      <c r="C117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q117" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q118" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q119" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q120" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q121" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q122" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q123" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q124" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q125" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q126" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q127" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q128" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q129" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q130" s="9">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P53" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="17">
+      <c r="F131" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q131" s="9">
         <v>44610</v>
       </c>
     </row>
